--- a/заказы/статистика филиалы/2023/11,23/02,11,23 ЗПФ/дв 02,11,23 млрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/02,11,23 ЗПФ/дв 02,11,23 млрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\02,11,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\02,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E560E6-A8CB-4794-B20E-A0A5F085D4B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1D7446-4099-42E8-A17E-A7062C9A479F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,10 +235,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -275,7 +279,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +325,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -464,6 +474,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2520,7 +2533,7 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
@@ -2729,7 +2742,7 @@
       <c r="V5" s="12"/>
       <c r="W5" s="19">
         <f>SUM(W6:W99)</f>
-        <v>13422.016000000001</v>
+        <v>11922.016000000001</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>53</v>
@@ -3002,7 +3015,7 @@
         <v>5.5</v>
       </c>
       <c r="Y9" s="28">
-        <f t="shared" ref="Y7:Y37" si="10">N9/X9</f>
+        <f t="shared" ref="Y9:Y28" si="10">N9/X9</f>
         <v>0</v>
       </c>
       <c r="Z9" s="2">
@@ -3275,10 +3288,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B14" s="32" t="str">
         <f>VLOOKUP(A14,[1]TDSheet!$A:$B,2,0)</f>
         <v>кг</v>
       </c>
@@ -3292,8 +3305,7 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="27">
-        <f>VLOOKUP(A14,[1]TDSheet!$A:$I,9,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="4"/>
@@ -3325,7 +3337,7 @@
       </c>
       <c r="W14" s="2">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="X14" s="27">
         <f>VLOOKUP(A14,[1]TDSheet!$A:$Z,26,0)</f>
@@ -3335,7 +3347,6 @@
         <v>250</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="9"/>
         <v>1500</v>
       </c>
     </row>
